--- a/ExcelToCs/配置/基础属性表.xlsx
+++ b/ExcelToCs/配置/基础属性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057C257C-192A-4395-834E-A5B3D353E8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC40F819-05D0-47C3-BFD5-BC3A9067F33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -519,7 +519,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>

--- a/ExcelToCs/配置/基础属性表.xlsx
+++ b/ExcelToCs/配置/基础属性表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC40F819-05D0-47C3-BFD5-BC3A9067F33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE3DA14-7904-42D2-B842-7C6250FC2E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15330" yWindow="2700" windowWidth="35220" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#BasicAttribute" sheetId="1" r:id="rId1"/>
@@ -25,60 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maximumhp</t>
-  </si>
-  <si>
-    <t>liferecovery</t>
-  </si>
-  <si>
-    <t>adrenaline</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>percentagedamage</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>criticalhitrate</t>
-  </si>
-  <si>
-    <t>armor</t>
-  </si>
-  <si>
-    <t>lucky</t>
-  </si>
-  <si>
-    <t>sunshine</t>
-  </si>
-  <si>
-    <t>goldcoins</t>
-  </si>
-  <si>
-    <t>botany</t>
-  </si>
-  <si>
     <t>最大生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,60 +44,119 @@
     <t>力量</t>
   </si>
   <si>
-    <t>%伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%暴击率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%移动速度</t>
+    <t>幸运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂戴夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>护甲</t>
-  </si>
-  <si>
-    <t>幸运</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阳光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>植物学</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackspeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movespeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaximumHP</t>
+  </si>
+  <si>
+    <t>LifeRecovery</t>
+  </si>
+  <si>
+    <t>Adrenaline</t>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PercentageDamage</t>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>CriticalHitRate</t>
+  </si>
+  <si>
+    <t>CriticalDamage</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>Sunshine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldCoins</t>
+  </si>
+  <si>
+    <t>Botany</t>
   </si>
 </sst>
 </file>
@@ -470,241 +481,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
         <v>11</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/基础属性表.xlsx
+++ b/ExcelToCs/配置/基础属性表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE3DA14-7904-42D2-B842-7C6250FC2E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6389AF62-DD37-4AEB-971E-FB6D06814CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15330" yWindow="2700" windowWidth="35220" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="35220" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#BasicAttribute" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
